--- a/resources/data-imports/Weapons/specialty_rings.xlsx
+++ b/resources/data-imports/Weapons/specialty_rings.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="97">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -302,6 +302,15 @@
   </si>
   <si>
     <t xml:space="preserve">There is a church lost to the time of sand, one that had no faith, one that was struck down.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Silver Ring of The Labyrinth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Labyrinth Cloth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A silver ring that glisten with the rage of the little girl</t>
   </si>
 </sst>
 </file>
@@ -597,13 +606,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BT8"/>
+  <dimension ref="A1:BT9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2:I8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="S9" activeCellId="0" sqref="S9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" customHeight="false" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17"/>
@@ -1689,6 +1698,117 @@
         <v>0</v>
       </c>
     </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0"/>
+      <c r="C9" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I9" s="1" t="n">
+        <v>1500</v>
+      </c>
+      <c r="L9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="1" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="R9" s="1" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="S9" s="1" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="Y9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM9" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="BN9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ9" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
